--- a/data/trans_bre/P25A_1_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_1_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-37,82%</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>142,11%</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>-34,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>53,42%</t>
+          <t>150,19%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26,74%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14,76%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-57,53%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-29,81%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 0,76</t>
+          <t>-4,02; 0,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,93</t>
+          <t>-0,07; 1,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,97</t>
+          <t>-0,64; 1,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 18,13</t>
+          <t>-0,95; 1,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-90,07; 95,02</t>
+          <t>-3,26; -0,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,08; 960,43</t>
+          <t>-2,28; 0,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-75,05; 444,92</t>
+          <t>-90,97; 110,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-46,01; 354,18</t>
+          <t>-38,19; 814,34</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-74,34; 506,68</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-60,9; 258,58</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-79,89; -6,39</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-81,37; 91,39</t>
         </is>
       </c>
     </row>
@@ -720,7 +792,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -730,32 +802,52 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>132,9%</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>60,03%</t>
+          <t>45,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>126,85%</t>
+          <t>120,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>52,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>98,43%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-81,54%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>28,69%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,16</t>
+          <t>-0,61; 1,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,11</t>
+          <t>-0,32; 1,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 1,74</t>
+          <t>-0,53; 1,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 38,69</t>
+          <t>-0,87; 3,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-4,64; -0,18</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 2,71</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>-100,0; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-61,79; 678,16</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-59,56; 791,9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-62,14; 304,76</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-73,04%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-13,43%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>-72,88%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-27,23%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>43,92%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 10,31</t>
+          <t>0,73; 6,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 0,18</t>
+          <t>-6,2; 0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 2,37</t>
+          <t>-4,54; 2,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,15 +1025,35 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>-2,57; 6,53</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,24</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,1</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,6%</t>
+          <t>28,11%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18,45%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25,17%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-61,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,15</t>
+          <t>-1,44; 0,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,95</t>
+          <t>-0,41; 0,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,84</t>
+          <t>-0,54; 0,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 16,92</t>
+          <t>-0,63; 1,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,37; 191,71</t>
+          <t>-3,01; -0,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,93; 193,1</t>
+          <t>-1,09; 1,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,89; 191,28</t>
+          <t>-69,7; 156,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 358,34</t>
+          <t>-37,33; 185,45</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-52,24; 202,3</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-51,75; 259,69</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-79,78; -19,25</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-47,34; 115,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_1_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_1_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,257 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-34,28%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>150,19%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>26,74%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>14,76%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-57,53%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-29,81%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.656745789456567</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.8627498382189202</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.1632846664542907</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1617451888079151</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-1.680181495294469</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.6054968907124955</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.3539193423744533</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.638761273070273</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2885155685985433</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1476285306600157</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.5760316659541656</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.3063903332736537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 0,84</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 1,95</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 1,05</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; 1,44</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; -0,32</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-2,28; 0,93</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-90,97; 110,48</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-38,19; 814,34</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-74,34; 506,68</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-60,9; 258,58</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-79,89; -6,39</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-81,37; 91,39</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.348858474211335</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.02815607231187332</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.631953627825366</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.9490659894100072</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-3.239076341393547</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-2.288133713688275</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.9298851942638237</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3968626287471569</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.7331002246573329</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.6090331792194391</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.7988599615640362</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.8166533554752125</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.7947463008268244</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.014697412045129</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.065051885112884</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.4404485698445</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.3046778118370779</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.8880328699998808</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.04223070115705</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>8.642832773787815</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>5.205214030937025</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.585826439603347</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>-0.08028464644713942</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.8571115780573418</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>45,68%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>120,6%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>52,9%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>98,43%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-81,54%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>28,69%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 1,33</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 1,12</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 1,53</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 3,86</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,64; -0,18</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 2,71</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-59,56; 791,9</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-62,14; 304,76</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.1002140165265275</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.3355953687375982</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.3328602642104573</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.4347268632070353</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-1.928513250933872</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.5632319947375258</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.1659197668555357</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.227218110282964</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.5188223497301793</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.9842801279323158</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.8145063520337061</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.3408231398718221</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,66</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-72,88%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-27,23%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>43,92%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.9414148391411803</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3049877345623299</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.5088981618476626</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.8671988949991053</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.662964792408513</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-1.245894830645936</v>
+      </c>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.6075369038524313</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>-0.6011245316167708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 6,68</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,2; 0,44</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 2,06</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 6,53</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.070887547421791</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.067386804714276</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.455843677760668</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.863553961237526</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.2137478156901731</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>2.882627775028699</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="n">
+        <v>7.639179701931825</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>3.321607168217616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +917,231 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,73</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,73%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>28,11%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>18,45%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>25,17%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-61,82%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,17%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.979281165500046</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.776054515571796</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2265467009166876</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>0.8562239052990518</v>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.7462785395165153</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.1521570695145373</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>0.4047222540508885</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 0,98</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 0,96</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 0,83</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 1,32</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,01; -0,47</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 1,4</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-69,7; 156,73</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-37,33; 185,45</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-52,24; 202,3</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-51,75; 259,69</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-79,78; -19,25</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-47,34; 115,22</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.952841891944043</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.387885116698568</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.215934511403369</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-2.657099224180303</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.603915589864037</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.2523419663024542</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.064612944344758</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>6.239826731271624</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.07983211526915809</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2255710462959146</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1744717220527078</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.236260282899174</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-1.722664414114719</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.01662871504035102</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.07068684359223258</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2761025425091367</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2459560394822557</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2517130166774863</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.61892420588606</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.008924908918210217</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.499904100133259</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.4199647714912038</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4552644561028896</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.6252478881559745</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-2.99057052355929</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-1.04296092993648</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7098910961484257</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3769335436352791</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.4854489925844164</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.5174587600614557</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.8000698880154379</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.4702363921759002</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.026153046414911</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.9224930599909719</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.8494904213346237</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.319800751639414</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.482383990253516</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.367701428062258</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.68952384769382</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.01147109176582</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.185332650871208</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>2.596855533751349</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>-0.1883382056154838</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.1997381217347</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1149,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
